--- a/Metadata_Tema_8.xlsx
+++ b/Metadata_Tema_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588D4270-93F6-4021-BF95-C2428D71A5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65B445F-3E54-4AD5-B56E-38CC4FD3D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F0B5E9B-0B4E-4A5B-9FC7-E28411C438AB}"/>
   </bookViews>
@@ -35,9 +35,221 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Relative Compactness</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Surface Area</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Wall Area</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Roof Area</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>Overall Height</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>Glazing Area</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>Glazing Area Distribution</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Heating Load</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Cooling Load</t>
+  </si>
+  <si>
+    <t>Unidad de Medida</t>
+  </si>
+  <si>
+    <t>Rango en Dataset</t>
+  </si>
+  <si>
+    <t>Influencia Térmica (Basada en Tsanas &amp; Xifara, 2012)</t>
+  </si>
+  <si>
+    <t>Adimensional</t>
+  </si>
+  <si>
+    <t>0.62–0.98</t>
+  </si>
+  <si>
+    <t>Compact shapes reduce heat loss (↓Y1/Y2). Key predictor in SVM models (R² &gt; 0.99).</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>514.5–808.5</t>
+  </si>
+  <si>
+    <t>Larger area → higher thermal exchange with environment (↑Y1/Y2).</t>
+  </si>
+  <si>
+    <t>245–416.5</t>
+  </si>
+  <si>
+    <t>Directly affects heat transfer. Thicker walls may mitigate losses.</t>
+  </si>
+  <si>
+    <t>110.25–220.5</t>
+  </si>
+  <si>
+    <t>Critical for solar heat gain (↑Y2 in warm climates).</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>3.5–7</t>
+  </si>
+  <si>
+    <t>Taller buildings → increased air stratification (↑Y1 in winter).</t>
+  </si>
+  <si>
+    <t>Categorical (2–5)</t>
+  </si>
+  <si>
+    <t>2–5</t>
+  </si>
+  <si>
+    <t>South-facing (4) maximizes solar gain in winter (↓Y1).</t>
+  </si>
+  <si>
+    <t>% (ratio)</t>
+  </si>
+  <si>
+    <t>0–0.4</t>
+  </si>
+  <si>
+    <t>High glazing → thermal losses (↑Y1) but solar gains (↓Y1 if well-oriented).</t>
+  </si>
+  <si>
+    <t>Categorical (0–4)</t>
+  </si>
+  <si>
+    <t>0–4</t>
+  </si>
+  <si>
+    <t>South-distributed (3) optimizes winter solar gains (↓Y1).</t>
+  </si>
+  <si>
+    <t>kWh/m²/year</t>
+  </si>
+  <si>
+    <t>6.01–43.1</t>
+  </si>
+  <si>
+    <t>Primary efficiency metric. Lower values = better insulation.</t>
+  </si>
+  <si>
+    <t>10.9–48.03</t>
+  </si>
+  <si>
+    <t>Driven by solar gain and insulation. Minimization target in warm climates.</t>
+  </si>
+  <si>
+    <t>Named</t>
+  </si>
+  <si>
+    <t>Relative Compactness - Ratio of building volume to surface area. Higher values indicate more compact shapes (e.g., cube-like).</t>
+  </si>
+  <si>
+    <t>Surface Area - Total building envelope area (walls + roof).</t>
+  </si>
+  <si>
+    <t>Wall Area - Total area of vertical walls.</t>
+  </si>
+  <si>
+    <t>Roof Area - Total area of the roof.</t>
+  </si>
+  <si>
+    <t>Overall Height - Vertical distance from ground to roof.</t>
+  </si>
+  <si>
+    <t>Orientation - Cardinal direction of the main facade (2: North, 3: East, 4: South, 5: West).</t>
+  </si>
+  <si>
+    <t>Glazing Area - Ratio of window area to wall area.</t>
+  </si>
+  <si>
+    <t>Glazing Distribution - Window placement (0: Uniform, 1–4: Cardinal direction).</t>
+  </si>
+  <si>
+    <t>Heating Load - Energy required to maintain thermal comfort in winter.</t>
+  </si>
+  <si>
+    <t>Cooling Load - Energy required to maintain thermal comfort in summer.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +257,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +292,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +659,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7F073F-6CEB-417B-A970-E214E51C3F9E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>